--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/157.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/157.xlsx
@@ -479,13 +479,13 @@
         <v>-15.07018978889757</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.29651292858265</v>
+        <v>-11.29486329842459</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7293040159592585</v>
+        <v>0.6491005687508447</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.143955408050423</v>
+        <v>-5.206012923520204</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-14.87329518173892</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.47552398533757</v>
+        <v>-11.48053833732595</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8131994925690392</v>
+        <v>0.7272616167159492</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.030733173075175</v>
+        <v>-5.092555027093806</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-14.52948945250368</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.014900677811</v>
+        <v>-12.02419621282862</v>
       </c>
       <c r="F4" t="n">
-        <v>0.817179552632924</v>
+        <v>0.7377747358978554</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.724569671121412</v>
+        <v>-4.785514340849646</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-14.03795303369846</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.7050352375069</v>
+        <v>-12.71455334167284</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8326415622890024</v>
+        <v>0.7514300077617756</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.809813654923889</v>
+        <v>-4.868244602506513</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.38163919803688</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.30444013850965</v>
+        <v>-13.31682545699792</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8598735521997927</v>
+        <v>0.7812935505437528</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.086490107524208</v>
+        <v>-4.154792651449493</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-12.57971962318823</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.56717647193741</v>
+        <v>-13.59192092430827</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9858345978400391</v>
+        <v>0.8994253990846471</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.094266935412193</v>
+        <v>-4.166575724007046</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-11.64961997238107</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.14116921312436</v>
+        <v>-14.16617551155206</v>
       </c>
       <c r="F8" t="n">
-        <v>1.05767206353259</v>
+        <v>0.9750334479956151</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.685080102396887</v>
+        <v>-3.751654462347064</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-10.62421799482003</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.93646114924501</v>
+        <v>-14.96134961694713</v>
       </c>
       <c r="F9" t="n">
-        <v>1.281759918971573</v>
+        <v>1.200613825958555</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.306725642573845</v>
+        <v>-3.379230815711324</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-9.54607727526267</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.52715966885801</v>
+        <v>-15.55457495100858</v>
       </c>
       <c r="F10" t="n">
-        <v>1.333814915070276</v>
+        <v>1.248191254485388</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.597502505334703</v>
+        <v>-2.677954706297109</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-8.456221460707317</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.13193241402586</v>
+        <v>-16.16145555693395</v>
       </c>
       <c r="F11" t="n">
-        <v>1.275279229064919</v>
+        <v>1.193832013086541</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.138996967514614</v>
+        <v>-2.228286472895185</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-7.410639624645283</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.59627711891336</v>
+        <v>-16.6300814448507</v>
       </c>
       <c r="F12" t="n">
-        <v>1.299801112287472</v>
+        <v>1.221862633470677</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.71906135386625</v>
+        <v>-1.806609582968872</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.442664442929668</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.38918625591682</v>
+        <v>-17.42628984217027</v>
       </c>
       <c r="F13" t="n">
-        <v>1.524465029051491</v>
+        <v>1.445125673830631</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.9237170485342331</v>
+        <v>-1.01478710710128</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.589390419080798</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.20411664630005</v>
+        <v>-18.23898144876757</v>
       </c>
       <c r="F14" t="n">
-        <v>1.725353323854936</v>
+        <v>1.648763352230839</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.7416947621257156</v>
+        <v>-0.8213221480090935</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.86769727211944</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.04940808697325</v>
+        <v>-19.08148422893548</v>
       </c>
       <c r="F15" t="n">
-        <v>1.772930752381769</v>
+        <v>1.697257241956592</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.312673090305194</v>
+        <v>-0.3907163075447231</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.289986889031614</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.05488385291498</v>
+        <v>-20.079366459229</v>
       </c>
       <c r="F16" t="n">
-        <v>2.099609892888517</v>
+        <v>2.021370291106363</v>
       </c>
       <c r="G16" t="n">
-        <v>0.260756681859566</v>
+        <v>0.1781311586254328</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.869746334655315</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.76307269822962</v>
+        <v>-20.79073673413419</v>
       </c>
       <c r="F17" t="n">
-        <v>2.153576365202112</v>
+        <v>2.081254484304417</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3479514187854617</v>
+        <v>0.2756033532820834</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.604292346214141</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.67341979172336</v>
+        <v>-21.70080888926825</v>
       </c>
       <c r="F18" t="n">
-        <v>2.27363278226074</v>
+        <v>2.199870748050456</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9123213173837472</v>
+        <v>0.836294314781844</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.489396418631172</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.6887540617049</v>
+        <v>-22.71048728442216</v>
       </c>
       <c r="F19" t="n">
-        <v>2.372217822658938</v>
+        <v>2.299895941761243</v>
       </c>
       <c r="G19" t="n">
-        <v>1.118970225437552</v>
+        <v>1.051269927442986</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.503508761834619</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.03702240959766</v>
+        <v>-23.06718707534499</v>
       </c>
       <c r="F20" t="n">
-        <v>2.672057742340148</v>
+        <v>2.600626138035691</v>
       </c>
       <c r="G20" t="n">
-        <v>1.73713639641249</v>
+        <v>1.656854395387025</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.625949997817173</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.00214769818118</v>
+        <v>-24.02435224380075</v>
       </c>
       <c r="F21" t="n">
-        <v>2.787112899713237</v>
+        <v>2.721703754715973</v>
       </c>
       <c r="G21" t="n">
-        <v>1.831741376746802</v>
+        <v>1.760466880076445</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.834404724578111</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.33458745193828</v>
+        <v>-24.36501396374246</v>
       </c>
       <c r="F22" t="n">
-        <v>2.872186683578773</v>
+        <v>2.806541877130358</v>
       </c>
       <c r="G22" t="n">
-        <v>2.105501429167294</v>
+        <v>2.031425179688808</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-4.105856372645537</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.86914617696596</v>
+        <v>-24.90039750384916</v>
       </c>
       <c r="F23" t="n">
-        <v>2.799393479778776</v>
+        <v>2.740451932385325</v>
       </c>
       <c r="G23" t="n">
-        <v>2.659305839372307</v>
+        <v>2.577976454119505</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.427188828982753</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.41648298956716</v>
+        <v>-25.43885773512367</v>
       </c>
       <c r="F24" t="n">
-        <v>2.676797155968853</v>
+        <v>2.62262120680979</v>
       </c>
       <c r="G24" t="n">
-        <v>2.443361396300877</v>
+        <v>2.367818808904118</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.785606261355422</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.55731689123561</v>
+        <v>-25.58170785142974</v>
       </c>
       <c r="F25" t="n">
-        <v>2.792192713215826</v>
+        <v>2.745086607591296</v>
       </c>
       <c r="G25" t="n">
-        <v>2.3455357094675</v>
+        <v>2.273737520683474</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.173043699855328</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.63979839913848</v>
+        <v>-25.66043186841704</v>
       </c>
       <c r="F26" t="n">
-        <v>2.964487418612942</v>
+        <v>2.912196761063087</v>
       </c>
       <c r="G26" t="n">
-        <v>2.346818755145989</v>
+        <v>2.273920812923258</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-5.587523493431654</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.391267214294</v>
+        <v>-25.41639134344727</v>
       </c>
       <c r="F27" t="n">
-        <v>2.656818301832379</v>
+        <v>2.609450350151014</v>
       </c>
       <c r="G27" t="n">
-        <v>2.044988805432836</v>
+        <v>1.983009843780105</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-6.02175154931284</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.4939632377845</v>
+        <v>-25.51226627715723</v>
       </c>
       <c r="F28" t="n">
-        <v>2.925917494441217</v>
+        <v>2.876402405093808</v>
       </c>
       <c r="G28" t="n">
-        <v>2.004533589651903</v>
+        <v>1.939150629260323</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-6.477607338938085</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.71922940047923</v>
+        <v>-25.7328061185261</v>
       </c>
       <c r="F29" t="n">
-        <v>2.743044208347987</v>
+        <v>2.701646346762449</v>
       </c>
       <c r="G29" t="n">
-        <v>1.911394947235864</v>
+        <v>1.842503249682701</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-6.948732509957533</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.36000279510795</v>
+        <v>-25.37886880350288</v>
       </c>
       <c r="F30" t="n">
-        <v>2.721153877996621</v>
+        <v>2.676482940700652</v>
       </c>
       <c r="G30" t="n">
-        <v>2.057688339189311</v>
+        <v>1.980836521508379</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-7.431426573499727</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.58084057608831</v>
+        <v>-24.60953890391738</v>
       </c>
       <c r="F31" t="n">
-        <v>2.630712249965977</v>
+        <v>2.58719343532008</v>
       </c>
       <c r="G31" t="n">
-        <v>1.528078504635808</v>
+        <v>1.452064594336746</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-7.916766042539604</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.71790389453834</v>
+        <v>-24.73933599429025</v>
       </c>
       <c r="F32" t="n">
-        <v>2.611073795703388</v>
+        <v>2.568314334622311</v>
       </c>
       <c r="G32" t="n">
-        <v>1.652298273998105</v>
+        <v>1.564632214169907</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-8.38927599170084</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.14164618495977</v>
+        <v>-24.16677031411304</v>
       </c>
       <c r="F33" t="n">
-        <v>2.669936789279789</v>
+        <v>2.623590037220078</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8752046388274538</v>
+        <v>0.7990728978028168</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-8.837967354897833</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.4909325491203</v>
+        <v>-23.5191726463499</v>
       </c>
       <c r="F34" t="n">
-        <v>2.651110057793387</v>
+        <v>2.601542599234612</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8071115717476366</v>
+        <v>0.7316606304707692</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.242033479351059</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.84409423492198</v>
+        <v>-22.87897212969234</v>
       </c>
       <c r="F35" t="n">
-        <v>2.528330441743679</v>
+        <v>2.476642030124545</v>
       </c>
       <c r="G35" t="n">
-        <v>0.868265718321339</v>
+        <v>0.7867923177372778</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.589943566070133</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.04072434794799</v>
+        <v>-22.0757462580496</v>
       </c>
       <c r="F36" t="n">
-        <v>2.378580681840016</v>
+        <v>2.32945836157786</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8953798775065537</v>
+        <v>0.8080804021579243</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-9.865918418497122</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.07948747330846</v>
+        <v>-21.12571639464259</v>
       </c>
       <c r="F37" t="n">
-        <v>2.420266574088072</v>
+        <v>2.369416069850808</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8340817156015923</v>
+        <v>0.7461145328080349</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-10.06587535797753</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.96740426868044</v>
+        <v>-21.00213814811954</v>
       </c>
       <c r="F38" t="n">
-        <v>2.24935965279218</v>
+        <v>2.200001671078873</v>
       </c>
       <c r="G38" t="n">
-        <v>0.530458120399123</v>
+        <v>0.4505688884589106</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-10.18948089335443</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.10180666629972</v>
+        <v>-20.14489343495184</v>
       </c>
       <c r="F39" t="n">
-        <v>2.494421377383609</v>
+        <v>2.439721736110877</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3623136750028351</v>
+        <v>0.2868234568174426</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-10.24142165399121</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.5831419969219</v>
+        <v>-19.62779984191503</v>
       </c>
       <c r="F40" t="n">
-        <v>2.334328698234982</v>
+        <v>2.279707610779301</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03547742686198557</v>
+        <v>-0.03680517712718406</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-10.23606707067115</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.61113015704363</v>
+        <v>-18.67039901200813</v>
       </c>
       <c r="F41" t="n">
-        <v>2.549775633798427</v>
+        <v>2.496542330443968</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.02375215119398317</v>
+        <v>-0.10018501518398</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-10.18430280998274</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.36390820248332</v>
+        <v>-18.40788524772868</v>
       </c>
       <c r="F42" t="n">
-        <v>2.551608556196268</v>
+        <v>2.504476265966054</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.2758051655028934</v>
+        <v>-0.3485329077886817</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-10.10452242957061</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.43267888595703</v>
+        <v>-17.48349011328577</v>
       </c>
       <c r="F43" t="n">
-        <v>2.909656854311793</v>
+        <v>2.857470935184673</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.2864099308046916</v>
+        <v>-0.3559431511970987</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-10.00582043755075</v>
       </c>
       <c r="E44" t="n">
-        <v>-16.9793055308509</v>
+        <v>-17.03426701818046</v>
       </c>
       <c r="F44" t="n">
-        <v>2.844902324456616</v>
+        <v>2.791747574919208</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.617317885129318</v>
+        <v>-0.6833030914516173</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.900800393899186</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.24604492559434</v>
+        <v>-16.30670156466006</v>
       </c>
       <c r="F45" t="n">
-        <v>2.787086715107553</v>
+        <v>2.737623994971512</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.6608236074723737</v>
+        <v>-0.7276859980850687</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.791521835412345</v>
       </c>
       <c r="E46" t="n">
-        <v>-15.7705455786857</v>
+        <v>-15.83111057163152</v>
       </c>
       <c r="F46" t="n">
-        <v>2.955846498737402</v>
+        <v>2.903686764215966</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.8241108085143811</v>
+        <v>-0.8898210764770043</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.679627488204311</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.02675876194439</v>
+        <v>-15.09516604429241</v>
       </c>
       <c r="F47" t="n">
-        <v>2.931154415577907</v>
+        <v>2.878654281182585</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.154953301324799</v>
+        <v>-1.222758337742098</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-9.564296637795005</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.37625460295039</v>
+        <v>-14.44544742346892</v>
       </c>
       <c r="F48" t="n">
-        <v>2.794130374036402</v>
+        <v>2.743541715855972</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.194884824992063</v>
+        <v>-1.260451077623428</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-9.439107700652904</v>
       </c>
       <c r="E49" t="n">
-        <v>-13.76234343039902</v>
+        <v>-13.83558177249563</v>
       </c>
       <c r="F49" t="n">
-        <v>3.201170069385666</v>
+        <v>3.142490368049049</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.376252496258495</v>
+        <v>-1.447919762014103</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-9.301966786974116</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.1667745741289</v>
+        <v>-13.23757774789695</v>
       </c>
       <c r="F50" t="n">
-        <v>3.255241280121994</v>
+        <v>3.19559274837509</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.325493638141123</v>
+        <v>-1.404335485853997</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.144196537676441</v>
       </c>
       <c r="E51" t="n">
-        <v>-12.3139550593217</v>
+        <v>-12.38301695681181</v>
       </c>
       <c r="F51" t="n">
-        <v>3.243170176901923</v>
+        <v>3.183128876069767</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.327968083378209</v>
+        <v>-1.413657205477306</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.966772334360533</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.31412525925865</v>
+        <v>-12.36456990210782</v>
       </c>
       <c r="F52" t="n">
-        <v>3.207087790270126</v>
+        <v>3.144349475052574</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.421460217970975</v>
+        <v>-1.509649969912842</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.764849904258622</v>
       </c>
       <c r="E53" t="n">
-        <v>-11.50054337606811</v>
+        <v>-11.56037520005479</v>
       </c>
       <c r="F53" t="n">
-        <v>3.487629655562632</v>
+        <v>3.420570880407311</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.570345885887084</v>
+        <v>-1.656244484831648</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.541761421694765</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.26680649343477</v>
+        <v>-11.32331287249966</v>
       </c>
       <c r="F54" t="n">
-        <v>3.140055199720488</v>
+        <v>3.077421622925671</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.630662125078916</v>
+        <v>-1.721614352920387</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.301547722848266</v>
       </c>
       <c r="E55" t="n">
-        <v>-10.68472270909163</v>
+        <v>-10.7442665024158</v>
       </c>
       <c r="F55" t="n">
-        <v>3.024554904050781</v>
+        <v>2.961947511861647</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.015431813294403</v>
+        <v>-2.110115347445766</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.048643814481476</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.12459471661406</v>
+        <v>-10.18813166230496</v>
       </c>
       <c r="F56" t="n">
-        <v>3.25141832769221</v>
+        <v>3.183416906732285</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.296981785905722</v>
+        <v>-2.38692590642838</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.794754573246985</v>
       </c>
       <c r="E57" t="n">
-        <v>-9.538557056812719</v>
+        <v>-9.593531636445128</v>
       </c>
       <c r="F57" t="n">
-        <v>3.280718901451993</v>
+        <v>3.207061605664442</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.792551633070737</v>
+        <v>-2.876263817440734</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.546633225888654</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.411535534642294</v>
+        <v>-9.462320577365348</v>
       </c>
       <c r="F58" t="n">
-        <v>3.24398189967811</v>
+        <v>3.168989189000703</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.601574211518479</v>
+        <v>-2.693547638981605</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.318883948099761</v>
       </c>
       <c r="E59" t="n">
-        <v>-8.811371280074729</v>
+        <v>-8.863373906962066</v>
       </c>
       <c r="F59" t="n">
-        <v>3.353066966955371</v>
+        <v>3.272418381450338</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.977663702949902</v>
+        <v>-3.065748716469035</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.117802589795355</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.701697059169589</v>
+        <v>-8.749536333753257</v>
       </c>
       <c r="F60" t="n">
-        <v>3.146575166535668</v>
+        <v>3.069540056614951</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.680704089893871</v>
+        <v>-2.775937500764587</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.953682506388446</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.27018784980914</v>
+        <v>-8.314060156631765</v>
       </c>
       <c r="F61" t="n">
-        <v>3.21326735721142</v>
+        <v>3.132880617763222</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.14534991774673</v>
+        <v>-3.237048406850179</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.832048703192793</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.900107725382069</v>
+        <v>-7.942461325075053</v>
       </c>
       <c r="F62" t="n">
-        <v>3.016123461020709</v>
+        <v>2.94141878100582</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.274597131400249</v>
+        <v>-3.359029392426541</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.750406393292189</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.71739154692294</v>
+        <v>-7.753513210463263</v>
       </c>
       <c r="F63" t="n">
-        <v>3.31604193451897</v>
+        <v>3.232355934754657</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.251109540102193</v>
+        <v>-3.337296169709275</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.705514513364503</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.458465073622124</v>
+        <v>-7.490148446499101</v>
       </c>
       <c r="F64" t="n">
-        <v>3.174357033165811</v>
+        <v>3.089257064694591</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.586560523512898</v>
+        <v>-3.668282677850952</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.682666195455842</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.175069086310121</v>
+        <v>-7.205600336537026</v>
       </c>
       <c r="F65" t="n">
-        <v>3.278048071672281</v>
+        <v>3.190958073169119</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.619775695822357</v>
+        <v>-3.702872541958793</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.670301538295375</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.960905196425166</v>
+        <v>-6.990428339333259</v>
       </c>
       <c r="F66" t="n">
-        <v>3.123192313660345</v>
+        <v>3.037961422160708</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.680013381197139</v>
+        <v>-3.758305352190661</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.648476822065773</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.0711423863525</v>
+        <v>-7.089982210141744</v>
       </c>
       <c r="F67" t="n">
-        <v>3.123663636562647</v>
+        <v>3.037751945315241</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.572158990386999</v>
+        <v>-3.648657315891205</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-6.602912026824238</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.756874748939707</v>
+        <v>-6.779982663455354</v>
       </c>
       <c r="F68" t="n">
-        <v>3.089649833779843</v>
+        <v>3.004654603731357</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.54796441473549</v>
+        <v>-3.623048771532789</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.519376844609002</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.94439580254175</v>
+        <v>-6.95805107440567</v>
       </c>
       <c r="F69" t="n">
-        <v>2.844666663005464</v>
+        <v>2.761216324692302</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.588877861115884</v>
+        <v>-3.664381171604118</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.385503432581292</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.690025450629854</v>
+        <v>-6.70903547435604</v>
       </c>
       <c r="F70" t="n">
-        <v>2.913217960684742</v>
+        <v>2.827384823254386</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.399458423601791</v>
+        <v>-3.47302407326945</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.197389653869137</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.61566117048885</v>
+        <v>-6.631633779955756</v>
       </c>
       <c r="F71" t="n">
-        <v>2.812590521043236</v>
+        <v>2.731261135790434</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.394863025304345</v>
+        <v>-3.467093260082148</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.95069729485404</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.79095401323672</v>
+        <v>-6.80529008484841</v>
       </c>
       <c r="F72" t="n">
-        <v>2.970614616342869</v>
+        <v>2.880958526482729</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.275147008119602</v>
+        <v>-3.343488828953412</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.652072037480074</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.937928204937937</v>
+        <v>-6.952565399514987</v>
       </c>
       <c r="F73" t="n">
-        <v>2.71212018903583</v>
+        <v>2.632623726180869</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.201267143183742</v>
+        <v>-3.264201842943919</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.305610158684066</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.210117181017422</v>
+        <v>-7.225003129348464</v>
       </c>
       <c r="F74" t="n">
-        <v>2.84880383070345</v>
+        <v>2.767317337816547</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.173171061285398</v>
+        <v>-3.234050269499424</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.924027853928075</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.381338317581515</v>
+        <v>-7.396054065975616</v>
       </c>
       <c r="F75" t="n">
-        <v>2.39544356790016</v>
+        <v>2.319455842206782</v>
       </c>
       <c r="G75" t="n">
-        <v>-2.907528236626776</v>
+        <v>-2.96923225991983</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.518767306954774</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.818686694009375</v>
+        <v>-7.831451689280057</v>
       </c>
       <c r="F76" t="n">
-        <v>2.651162427004753</v>
+        <v>2.568680919101879</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.836057355413793</v>
+        <v>-2.896321225394258</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.101138313744126</v>
       </c>
       <c r="E77" t="n">
-        <v>-8.133386377415944</v>
+        <v>-8.151728693697203</v>
       </c>
       <c r="F77" t="n">
-        <v>2.491148301673177</v>
+        <v>2.414008453329727</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.708891817912108</v>
+        <v>-2.76974484152045</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.684649943559776</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.47649635798906</v>
+        <v>-8.50190851780485</v>
       </c>
       <c r="F78" t="n">
-        <v>2.382848772566419</v>
+        <v>2.30890344611635</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.550815353401107</v>
+        <v>-2.607151532529055</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.275765079485439</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.931846650824292</v>
+        <v>-8.961068670767025</v>
       </c>
       <c r="F79" t="n">
-        <v>2.502695712779579</v>
+        <v>2.424377557180375</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.264643797886659</v>
+        <v>-2.322891453229498</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.885542409243162</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.320753506737764</v>
+        <v>-9.356403847375786</v>
       </c>
       <c r="F80" t="n">
-        <v>2.206155053414484</v>
+        <v>2.133021449740602</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.706610573863768</v>
+        <v>-1.771260365296212</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.517079000396079</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.949144766232092</v>
+        <v>-9.99283378081493</v>
       </c>
       <c r="F81" t="n">
-        <v>2.350379861518939</v>
+        <v>2.277010596393906</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.817292902087721</v>
+        <v>-1.875789311184553</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.177641766448609</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.59949181759199</v>
+        <v>-10.64761912283818</v>
       </c>
       <c r="F82" t="n">
-        <v>2.332914729528076</v>
+        <v>2.257450695948367</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.586292310748306</v>
+        <v>-1.649030625965857</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-1.871776211347138</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.19406565884614</v>
+        <v>-11.24615993185337</v>
       </c>
       <c r="F83" t="n">
-        <v>2.002988697916579</v>
+        <v>1.934620692477086</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.179514461455877</v>
+        <v>-1.24454392967073</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.603179179977815</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.06208533725258</v>
+        <v>-12.12547826761222</v>
       </c>
       <c r="F84" t="n">
-        <v>2.068633504364993</v>
+        <v>1.995997408199097</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.034451745969552</v>
+        <v>-1.099049168190629</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-1.378674735972594</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.68269976885892</v>
+        <v>-12.754327757706</v>
       </c>
       <c r="F85" t="n">
-        <v>1.989320333749817</v>
+        <v>1.917024637457806</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.7365363948060755</v>
+        <v>-0.798502264155965</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-1.201602610565521</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.46525289431457</v>
+        <v>-13.54325683464557</v>
       </c>
       <c r="F86" t="n">
-        <v>1.957924991535358</v>
+        <v>1.883874926662555</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.5365776535043932</v>
+        <v>-0.59427543212788</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-1.078691122510774</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.27999999245802</v>
+        <v>-14.36582003758554</v>
       </c>
       <c r="F87" t="n">
-        <v>1.978087137911616</v>
+        <v>1.90249218130349</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1456283983476111</v>
+        <v>-0.2032214385483641</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-1.014843901526242</v>
       </c>
       <c r="E88" t="n">
-        <v>-15.47057473597607</v>
+        <v>-15.55930127233444</v>
       </c>
       <c r="F88" t="n">
-        <v>1.996887684792335</v>
+        <v>1.923439865850252</v>
       </c>
       <c r="G88" t="n">
-        <v>0.131810591171406</v>
+        <v>0.07425682787917819</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-1.014043321132173</v>
       </c>
       <c r="E89" t="n">
-        <v>-16.38048978347603</v>
+        <v>-16.48727060545315</v>
       </c>
       <c r="F89" t="n">
-        <v>1.732318428966734</v>
+        <v>1.662091316523716</v>
       </c>
       <c r="G89" t="n">
-        <v>0.3092898484938446</v>
+        <v>0.2564100373161129</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-1.080549344460255</v>
       </c>
       <c r="E90" t="n">
-        <v>-17.77459746697155</v>
+        <v>-17.8849655799273</v>
       </c>
       <c r="F90" t="n">
-        <v>1.69678591905429</v>
+        <v>1.624411668945228</v>
       </c>
       <c r="G90" t="n">
-        <v>0.7741058762836451</v>
+        <v>0.7176518664301224</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.213909016138071</v>
       </c>
       <c r="E91" t="n">
-        <v>-18.89804797382006</v>
+        <v>-19.02491238835638</v>
       </c>
       <c r="F91" t="n">
-        <v>1.378642960000346</v>
+        <v>1.312160246170061</v>
       </c>
       <c r="G91" t="n">
-        <v>0.7457217637227831</v>
+        <v>0.6898961844056631</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.413579395709021</v>
       </c>
       <c r="E92" t="n">
-        <v>-20.16302627438763</v>
+        <v>-20.30014196204903</v>
       </c>
       <c r="F92" t="n">
-        <v>1.161520209673161</v>
+        <v>1.100064940134099</v>
       </c>
       <c r="G92" t="n">
-        <v>1.258193773856467</v>
+        <v>1.194748474285462</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.67690954511492</v>
       </c>
       <c r="E93" t="n">
-        <v>-21.73549039949598</v>
+        <v>-21.88798954299641</v>
       </c>
       <c r="F93" t="n">
-        <v>1.024391429708922</v>
+        <v>0.9622946373306157</v>
       </c>
       <c r="G93" t="n">
-        <v>1.25374239089028</v>
+        <v>1.191475398575031</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.997361815600327</v>
       </c>
       <c r="E94" t="n">
-        <v>-23.34344775760825</v>
+        <v>-23.51190641827274</v>
       </c>
       <c r="F94" t="n">
-        <v>1.129025114019997</v>
+        <v>1.066195152682554</v>
       </c>
       <c r="G94" t="n">
-        <v>1.429441095026244</v>
+        <v>1.358506998229772</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.370252486216204</v>
       </c>
       <c r="E95" t="n">
-        <v>-24.97885967477962</v>
+        <v>-25.17000729626882</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3947171245361071</v>
+        <v>0.3410124982793468</v>
       </c>
       <c r="G95" t="n">
-        <v>1.414384946758259</v>
+        <v>1.338973282389916</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.790032821358972</v>
       </c>
       <c r="E96" t="n">
-        <v>-26.73555868547675</v>
+        <v>-26.93546505756706</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5793447792101282</v>
+        <v>0.5144593263265338</v>
       </c>
       <c r="G96" t="n">
-        <v>1.123225223861112</v>
+        <v>1.048376528514965</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.243009613686959</v>
       </c>
       <c r="E97" t="n">
-        <v>-28.62836527651645</v>
+        <v>-28.83981905971317</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.06941810350592369</v>
+        <v>-0.121067238216533</v>
       </c>
       <c r="G97" t="n">
-        <v>1.308730062825529</v>
+        <v>1.227505415995461</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.732549660888115</v>
       </c>
       <c r="E98" t="n">
-        <v>-30.84281047146884</v>
+        <v>-31.06235529782174</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.3268913311913085</v>
+        <v>-0.3863303860927449</v>
       </c>
       <c r="G98" t="n">
-        <v>1.192732259647836</v>
+        <v>1.105917199504351</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.22867825118917</v>
       </c>
       <c r="E99" t="n">
-        <v>-32.99743693473738</v>
+        <v>-33.23150112494176</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.3032728168648347</v>
+        <v>-0.3599101189581417</v>
       </c>
       <c r="G99" t="n">
-        <v>0.8191041211506577</v>
+        <v>0.729853892678611</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.756143564697802</v>
       </c>
       <c r="E100" t="n">
-        <v>-34.94021684572395</v>
+        <v>-35.19203419858172</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3707898226196161</v>
+        <v>-0.4300979544926352</v>
       </c>
       <c r="G100" t="n">
-        <v>0.6355631276124999</v>
+        <v>0.5393608863314967</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.250236456886021</v>
       </c>
       <c r="E101" t="n">
-        <v>-36.72175195491183</v>
+        <v>-36.9964153762284</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.7324646886222987</v>
+        <v>-0.7865882685699943</v>
       </c>
       <c r="G101" t="n">
-        <v>0.06043135607831545</v>
+        <v>-0.02984007201538579</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.793012382676549</v>
       </c>
       <c r="E102" t="n">
-        <v>-39.01729087366587</v>
+        <v>-39.29644495485715</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.6317848797694252</v>
+        <v>-0.6902681965634155</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.4795868592343597</v>
+        <v>-0.5685097801353631</v>
       </c>
     </row>
   </sheetData>
